--- a/TestData/firstFlow/firstFlow.xlsx
+++ b/TestData/firstFlow/firstFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6C7516-9EC1-4160-AF4F-950664AFB91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2DC298-893C-4DBD-98CA-EE0A85CA50C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/TestData/firstFlow/firstFlow.xlsx
+++ b/TestData/firstFlow/firstFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2DC298-893C-4DBD-98CA-EE0A85CA50C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEF9BC-1002-4D6A-B839-0B25E4409FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Operation</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Test Mode (True/False)</t>
   </si>
   <si>
-    <t>Datastore</t>
-  </si>
-  <si>
     <t>Create wave with host</t>
   </si>
   <si>
@@ -78,18 +75,12 @@
     <t>Start Wave</t>
   </si>
   <si>
-    <t>Verify Sync details</t>
-  </si>
-  <si>
     <t>Create Dr Policy</t>
   </si>
   <si>
     <t>Add Policy to wave</t>
   </si>
   <si>
-    <t>Resume dr policy and verify sync</t>
-  </si>
-  <si>
     <t>Change target type</t>
   </si>
   <si>
@@ -127,6 +118,30 @@
   </si>
   <si>
     <t>./TestData/firstFlow/createDrPolicy.xlsx</t>
+  </si>
+  <si>
+    <t>Verify Sync Success</t>
+  </si>
+  <si>
+    <t>Resume dr policy</t>
+  </si>
+  <si>
+    <t>Verify Policy Sync details</t>
+  </si>
+  <si>
+    <t>Verify Wave Sync details</t>
+  </si>
+  <si>
+    <t>Pause DR Policy</t>
+  </si>
+  <si>
+    <t>Tear Down</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/tear_down.xlsx</t>
+  </si>
+  <si>
+    <t>Cloud / vCenter Name</t>
   </si>
 </sst>
 </file>
@@ -456,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
@@ -474,7 +489,7 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -509,59 +524,71 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -569,93 +596,154 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="b">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/firstFlow/firstFlow.xlsx
+++ b/TestData/firstFlow/firstFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DEF9BC-1002-4D6A-B839-0B25E4409FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA22234E-7AD3-4698-9E93-017A96B29EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4728" yWindow="1776" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Operation</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Cloud / vCenter Name</t>
+  </si>
+  <si>
+    <t>Add vCenter</t>
+  </si>
+  <si>
+    <t>./TestData/firstFlow/addVcenter.xlsx</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,10 +577,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -585,26 +591,32 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -612,7 +624,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -620,24 +632,18 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -648,18 +654,24 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -667,51 +679,51 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -719,26 +731,34 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
     </row>

--- a/TestData/firstFlow/firstFlow.xlsx
+++ b/TestData/firstFlow/firstFlow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA22234E-7AD3-4698-9E93-017A96B29EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69095638-4C4A-4013-85B3-BB682B14A866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4728" yWindow="1776" windowWidth="16236" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
